--- a/data/data_1.xlsx
+++ b/data/data_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
   <si>
     <t>Well</t>
   </si>
@@ -84,13 +84,16 @@
     <t>Направление</t>
   </si>
   <si>
+    <t>58P</t>
+  </si>
+  <si>
+    <t>615-98</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>59P</t>
-  </si>
-  <si>
-    <t>615-98</t>
-  </si>
-  <si>
-    <t>0.9</t>
   </si>
   <si>
     <t>617-98"</t>
@@ -1527,8 +1530,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7">
         <v>2878.4</v>
@@ -1787,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <v>2878.4</v>
@@ -1845,7 +1848,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8">
         <v>2878.4</v>
@@ -1863,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>2878.4</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
         <v>2878.4</v>
@@ -1939,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>2878.4</v>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7">
         <v>2878.4</v>
@@ -2015,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>2878.4</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>2878.4</v>
@@ -2091,7 +2094,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>2878.4</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7">
         <v>2878.4</v>
@@ -2168,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>2878.4</v>
@@ -2226,7 +2229,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <v>2878.4</v>
@@ -2244,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>2878.4</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7">
         <v>2878.4</v>
@@ -2320,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>2878.4</v>
@@ -2378,7 +2381,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>2878.4</v>
@@ -2396,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7">
         <v>2878.4</v>
@@ -2454,7 +2457,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7">
         <v>2878.4</v>
@@ -2472,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>2878.4</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>2878.4</v>
@@ -2548,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>2878.4</v>
@@ -2624,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>2878.4</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7">
         <v>2878.4</v>
@@ -2700,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>2878.4</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="7">
         <v>2883.4</v>
@@ -2776,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>2883.4</v>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>2883.4</v>
@@ -2852,7 +2855,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>2883.4</v>
@@ -2910,7 +2913,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <v>2883.4</v>
@@ -2928,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7">
         <v>2883.4</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7">
         <v>2883.4</v>
@@ -3004,7 +3007,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
         <v>2883.4</v>
@@ -3062,7 +3065,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="7">
         <v>2883.4</v>
@@ -3080,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7">
         <v>2883.4</v>
@@ -3098,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
         <v>3</v>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="7">
         <v>2883.4</v>
@@ -3156,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>2883.4</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
         <v>2883.4</v>
@@ -3232,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>2883.4</v>
@@ -3290,7 +3293,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
         <v>2883.4</v>
@@ -3308,7 +3311,7 @@
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <v>2883.4</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>2883.4</v>
@@ -3384,7 +3387,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" s="7">
         <v>2883.4</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>2890.4</v>
@@ -3460,7 +3463,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>2890.4</v>
@@ -3518,7 +3521,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7">
         <v>2890.4</v>
@@ -3536,7 +3539,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>2890.4</v>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>2890.4</v>
@@ -3612,7 +3615,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>2890.4</v>
@@ -3670,7 +3673,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
         <v>2897.4</v>
@@ -3688,7 +3691,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>2897.4</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" s="7">
         <v>2897.4</v>
@@ -3764,7 +3767,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="7">
         <v>2897.4</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7">
         <v>2897.4</v>
@@ -3840,7 +3843,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" s="7">
         <v>2897.4</v>
@@ -3898,7 +3901,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7">
         <v>2897.4</v>
@@ -3916,7 +3919,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="7">
         <v>2897.4</v>
@@ -3974,7 +3977,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" s="7">
         <v>2897.4</v>
@@ -3992,7 +3995,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>2897.4</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="7">
         <v>2897.4</v>
@@ -4068,7 +4071,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>2897.4</v>
@@ -4126,7 +4129,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7">
         <v>2897.4</v>
@@ -4144,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" s="7">
         <v>2897.4</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7">
         <v>2897.4</v>
@@ -4220,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" s="7">
         <v>2897.4</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" s="7">
         <v>2897.4</v>
@@ -4296,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <v>2897.4</v>
@@ -4354,7 +4357,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" s="7">
         <v>2897.4</v>
@@ -4372,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>2897.4</v>
@@ -4430,7 +4433,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" s="7">
         <v>2897.4</v>
@@ -4448,7 +4451,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>2897.4</v>
@@ -4506,7 +4509,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B40" s="7">
         <v>2897.4</v>
@@ -4524,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40" s="7">
         <v>2897.4</v>
@@ -4582,7 +4585,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B41" s="7">
         <v>2897.4</v>
@@ -4600,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H41" s="7">
         <v>2897.4</v>
@@ -4658,7 +4661,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7">
         <v>2897.4</v>
@@ -4676,7 +4679,7 @@
         <v>54</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H42" s="7">
         <v>2897.4</v>
@@ -4734,7 +4737,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" s="7">
         <v>2897.4</v>
@@ -4752,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H43" s="7">
         <v>2897.4</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B44" s="7">
         <v>2904.4</v>
@@ -4828,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H44" s="7">
         <v>2904.4</v>
@@ -4886,7 +4889,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B45" s="7">
         <v>2904.4</v>
@@ -4904,7 +4907,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7">
         <v>2904.4</v>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B46" s="7">
         <v>2904.4</v>
@@ -4980,7 +4983,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" s="7">
         <v>2904.4</v>
@@ -5038,7 +5041,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7">
         <v>2904.4</v>
@@ -5056,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="7">
         <v>2904.4</v>
@@ -5192,51 +5195,51 @@
         <v>18</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="AE1" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7">
         <v>2878.4</v>
@@ -5340,7 +5343,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7">
         <v>2878.4</v>
@@ -5358,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="7">
         <v>2878.4</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7">
         <v>2878.4</v>
@@ -5462,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <v>2878.4</v>
@@ -5548,7 +5551,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7">
         <v>2878.4</v>
@@ -5566,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
         <v>2878.4</v>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
         <v>2878.4</v>
@@ -5670,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>2878.4</v>
@@ -5756,7 +5759,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7">
         <v>2878.4</v>
@@ -5774,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>2878.4</v>
@@ -5860,7 +5863,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>2878.4</v>
@@ -5878,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>2878.4</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7">
         <v>2878.4</v>
@@ -5982,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>2878.4</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <v>2878.4</v>
@@ -6086,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>2878.4</v>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7">
         <v>2878.4</v>
@@ -6190,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>2878.4</v>
@@ -6276,7 +6279,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>2878.4</v>
@@ -6294,7 +6297,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7">
         <v>2878.4</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7">
         <v>2878.4</v>
@@ -6398,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>2878.4</v>
@@ -6484,7 +6487,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>2878.4</v>
@@ -6502,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
         <v>2878.4</v>
@@ -6588,7 +6591,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>2878.4</v>
@@ -6606,7 +6609,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
         <v>2878.4</v>
@@ -6692,7 +6695,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7">
         <v>2878.4</v>
@@ -6710,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>2878.4</v>
@@ -6796,7 +6799,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="7">
         <v>2883.4</v>
@@ -6814,7 +6817,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>2883.4</v>
@@ -6900,7 +6903,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>2883.4</v>
@@ -6918,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>2883.4</v>
@@ -7004,7 +7007,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <v>2883.4</v>
@@ -7022,7 +7025,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19" s="7">
         <v>2883.4</v>
@@ -7108,7 +7111,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7">
         <v>2883.4</v>
@@ -7126,7 +7129,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="7">
         <v>2883.4</v>
@@ -7212,7 +7215,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="7">
         <v>2883.4</v>
@@ -7230,7 +7233,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="7">
         <v>2883.4</v>
@@ -7248,7 +7251,7 @@
         <v>3</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
         <v>3</v>
@@ -7314,7 +7317,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="7">
         <v>2883.4</v>
@@ -7332,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="7">
         <v>2883.4</v>
@@ -7418,7 +7421,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
         <v>2883.4</v>
@@ -7436,7 +7439,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>2883.4</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
         <v>2883.4</v>
@@ -7540,7 +7543,7 @@
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7">
         <v>2883.4</v>
@@ -7626,7 +7629,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
         <v>2883.4</v>
@@ -7644,7 +7647,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" s="7">
         <v>2883.4</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>2890.4</v>
@@ -7748,7 +7751,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>2890.4</v>
@@ -7834,7 +7837,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7">
         <v>2890.4</v>
@@ -7852,7 +7855,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>2890.4</v>
@@ -7938,7 +7941,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>2890.4</v>
@@ -7956,7 +7959,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>2890.4</v>
@@ -8037,7 +8040,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
         <v>2897.4</v>
@@ -8055,7 +8058,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7">
         <v>2897.4</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" s="7">
         <v>2897.4</v>
@@ -8159,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="7">
         <v>2897.4</v>
@@ -8245,7 +8248,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7">
         <v>2897.4</v>
@@ -8263,7 +8266,7 @@
         <v>8</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" s="7">
         <v>2897.4</v>
@@ -8349,7 +8352,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="7">
         <v>2897.4</v>
@@ -8367,7 +8370,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="7">
         <v>2897.4</v>
@@ -8442,18 +8445,18 @@
         <v>0.427386</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG32" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" s="7">
         <v>2897.4</v>
@@ -8471,7 +8474,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>2897.4</v>
@@ -8557,7 +8560,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="7">
         <v>2897.4</v>
@@ -8575,7 +8578,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="7">
         <v>2897.4</v>
@@ -8661,7 +8664,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7">
         <v>2897.4</v>
@@ -8679,7 +8682,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" s="7">
         <v>2897.4</v>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7">
         <v>2897.4</v>
@@ -8782,7 +8785,7 @@
         <v>9</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H36" s="7">
         <v>2897.4</v>
@@ -8868,7 +8871,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" s="7">
         <v>2897.4</v>
@@ -8886,7 +8889,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="7">
         <v>2897.4</v>
@@ -8972,7 +8975,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" s="7">
         <v>2897.4</v>
@@ -8990,7 +8993,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>2897.4</v>
@@ -9076,7 +9079,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" s="7">
         <v>2897.4</v>
@@ -9094,7 +9097,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>2897.4</v>
@@ -9180,7 +9183,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B40" s="7">
         <v>2897.4</v>
@@ -9198,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40" s="7">
         <v>2897.4</v>
@@ -9284,7 +9287,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B41" s="7">
         <v>2897.4</v>
@@ -9302,7 +9305,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H41" s="7">
         <v>2897.4</v>
@@ -9388,7 +9391,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" s="7">
         <v>2897.4</v>
@@ -9406,7 +9409,7 @@
         <v>54</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H42" s="7">
         <v>2897.4</v>
@@ -9492,7 +9495,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" s="7">
         <v>2897.4</v>
@@ -9510,7 +9513,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H43" s="7">
         <v>2897.4</v>
@@ -9596,7 +9599,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B44" s="7">
         <v>2904.4</v>
@@ -9614,7 +9617,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H44" s="7">
         <v>2904.4</v>
@@ -9700,7 +9703,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B45" s="7">
         <v>2904.4</v>
@@ -9718,7 +9721,7 @@
         <v>3</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H45" s="7">
         <v>2904.4</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B46" s="7">
         <v>2904.4</v>
@@ -9822,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H46" s="7">
         <v>2904.4</v>
@@ -9908,7 +9911,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B47" s="7">
         <v>2904.4</v>
@@ -9926,7 +9929,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="7">
         <v>2904.4</v>
@@ -10036,279 +10039,279 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>19</v>
@@ -10319,12 +10322,12 @@
         <v>21</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
